--- a/qq_excel.xlsx
+++ b/qq_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\python\Demo\qq空间\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA3B3A8-CCD2-46F1-BC40-6A682F18A7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA131A47-A1A9-43AE-9633-A8E192B75B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="1680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,316 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年11月4日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有什么办法可以让心静下来呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年7月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物来顺应，未来不迎，当时不杂！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(42)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年6月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先行一步，下个地点见！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年6月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累吗？ 累。 为什么不放手？ 我能放手吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(52)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年3月9日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年前的今天……感觉离这条路越来越远了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年2月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班它不刺激吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(44)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月29日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“什么都做”和 “什么都可以做” 是不是两种意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人间真情何在？是不是要我变得虚伪起来你们才能看到假真情，真虚伪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月25日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的内心，需要多强大，才能抵挡这莫名的失落感！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血沸腾的想法会导致失眠你们信吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(68)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年12月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别问我在不在，不出意外，我都在！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(58)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年10月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身，从未停过！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年10月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收好我的真心，谁也不给！ 多重人格，爆发我的兽性吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年10月23日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿班上同学都能顺利找到满意的工作，以梦为马，未来可期，前程似锦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年10月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再不跑步，冬天要来了，再不锻炼，又要长肉啦！我的麒麟臂在哪，我的蝙蝠背在哪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(48)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年10月9日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持着我的倔强！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年9月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢人生阶段的每一位恩师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(41)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不敲代码就很无聊，谁陪我出去走一走撒？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年6月11日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲着敲着键盘，它突然给我弹出这个？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(54)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年5月9日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越把时间花在手机上， 你就越感觉孤独！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月24日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来还有热感冒这一说法，看来我的抵抗力真的下降了！以后少敲代码，多多远动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(26)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019年4月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看似风景美如画， 本想吟诗赠天下； 奈何自己没文化， 只能卧草‘风好大！’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞(73)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -360,7 +669,330 @@
     <col min="2" max="2" width="81.75" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
